--- a/aldo_website_deploy/gatentext_separabelverba.xlsx
+++ b/aldo_website_deploy/gatentext_separabelverba.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\OneDrive\pythonanywhere\aldo_website_deploy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b54fdeb03e09291/pythonanywhere/aldo_website_deploy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305B476-38D8-4A1C-99B3-650740415D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B305B476-38D8-4A1C-99B3-650740415D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7DC5DB5-6B6E-42BA-8471-2096779C3B89}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="590" windowWidth="14400" windowHeight="9610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="1523">
   <si>
     <t>Bijgewerkt</t>
   </si>
@@ -4718,7 +4719,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4734,7 +4735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5036,12 +5037,12 @@
       <selection activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -5095,7 +5096,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1">
         <v>5</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -5149,7 +5150,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1">
         <v>9</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D11" s="1">
         <v>10</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
         <v>11</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1">
         <v>12</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="1">
         <v>13</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
         <v>14</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="1">
         <v>15</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>16</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
         <v>17</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <v>18</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
         <v>19</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>20</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>21</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="1">
         <v>22</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
         <v>23</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="1">
         <v>24</v>
       </c>
@@ -5371,7 +5372,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="1">
         <v>25</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="1">
         <v>26</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D28" s="1">
         <v>27</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D29" s="1">
         <v>28</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="1">
         <v>29</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" s="1">
         <v>30</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="1">
         <v>31</v>
       </c>
@@ -5467,7 +5468,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="1">
         <v>32</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="4:7" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" ht="153" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D34" s="1">
         <v>33</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D35" s="1">
         <v>34</v>
       </c>
@@ -5507,7 +5508,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D36" s="1">
         <v>35</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="1">
         <v>36</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="1">
         <v>37</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="4:7" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" ht="153" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D39" s="1">
         <v>38</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" s="1">
         <v>39</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="1">
         <v>40</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="1">
         <v>41</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" ht="163.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="1">
         <v>42</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="1">
         <v>43</v>
       </c>
@@ -5631,7 +5632,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D45" s="1">
         <v>44</v>
       </c>
@@ -5643,7 +5644,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="1">
         <v>45</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="1">
         <v>46</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D48" s="1">
         <v>47</v>
       </c>
@@ -5683,7 +5684,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="1">
         <v>48</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D50" s="1">
         <v>49</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D51" s="1">
         <v>50</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D52" s="1">
         <v>51</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D53" s="1">
         <v>52</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D54" s="1">
         <v>53</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D55" s="1">
         <v>54</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D56" s="1">
         <v>55</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D57" s="1">
         <v>56</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="1">
         <v>57</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D59" s="1">
         <v>58</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="163.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D60" s="1">
         <v>59</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D61" s="1">
         <v>60</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D62" s="1">
         <v>61</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D63" s="1">
         <v>62</v>
       </c>
@@ -5891,7 +5892,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D64" s="1">
         <v>63</v>
       </c>
@@ -5903,7 +5904,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D65" s="1">
         <v>64</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D66" s="1">
         <v>65</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D67" s="1">
         <v>66</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D68" s="1">
         <v>67</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D69" s="1">
         <v>68</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D70" s="1">
         <v>69</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1">
         <v>70</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D72" s="1">
         <v>71</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D73" s="1">
         <v>72</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D74" s="1">
         <v>73</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D75" s="1">
         <v>74</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D76" s="1">
         <v>75</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D77" s="1">
         <v>76</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="4:7" ht="193.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:7" ht="193.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D78" s="1">
         <v>77</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D79" s="1">
         <v>78</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D80" s="1">
         <v>79</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D81" s="1">
         <v>80</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D82" s="1">
         <v>81</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D83" s="1">
         <v>82</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D84" s="1">
         <v>83</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D85" s="1">
         <v>84</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="4:7" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:7" ht="112.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1">
         <v>85</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1">
         <v>86</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D88" s="1">
         <v>87</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="4:7" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:7" ht="112.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D89" s="1">
         <v>88</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D90" s="1">
         <v>89</v>
       </c>
@@ -6265,7 +6266,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D91" s="1">
         <v>90</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D92" s="1">
         <v>91</v>
       </c>
@@ -6291,7 +6292,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D93" s="1">
         <v>92</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D94" s="1">
         <v>93</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D95" s="1">
         <v>94</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D96" s="1">
         <v>95</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D97" s="1">
         <v>96</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D98" s="1">
         <v>97</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D99" s="1">
         <v>98</v>
       </c>
@@ -6387,7 +6388,7 @@
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D100" s="1">
         <v>99</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="101" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D101" s="1">
         <v>100</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="4:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D102" s="1">
         <v>101</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D103" s="1">
         <v>102</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D104" s="1">
         <v>103</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D105" s="1">
         <v>104</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="1">
         <v>105</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D107" s="1">
         <v>106</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="142.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D108" s="1">
         <v>107</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D109" s="1">
         <v>108</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D110" s="1">
         <v>109</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D111" s="1">
         <v>110</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="4:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D112" s="1">
         <v>111</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D113" s="1">
         <v>112</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="114" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D114" s="1">
         <v>113</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D115" s="1">
         <v>114</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D116" s="1">
         <v>115</v>
       </c>
@@ -6623,7 +6624,7 @@
       </c>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D117" s="1">
         <v>116</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D118" s="1">
         <v>117</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D119" s="1">
         <v>118</v>
       </c>
@@ -6663,7 +6664,7 @@
       </c>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D120" s="1">
         <v>119</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D121" s="1">
         <v>120</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D122" s="1">
         <v>121</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D123" s="1">
         <v>122</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D124" s="1">
         <v>123</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D125" s="1">
         <v>124</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D126" s="1">
         <v>125</v>
       </c>
@@ -6759,7 +6760,7 @@
       </c>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D127" s="1">
         <v>126</v>
       </c>
@@ -6771,7 +6772,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D128" s="1">
         <v>127</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D129" s="1">
         <v>128</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D130" s="1">
         <v>129</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D131" s="1">
         <v>130</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D132" s="1">
         <v>131</v>
       </c>
@@ -6839,7 +6840,7 @@
       </c>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D133" s="1">
         <v>132</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D134" s="1">
         <v>133</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="244.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D135" s="1">
         <v>134</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="136" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D136" s="1">
         <v>135</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="137" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D137" s="1">
         <v>136</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="138" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D138" s="1">
         <v>137</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="20" x14ac:dyDescent="0.35">
       <c r="D139" s="1">
         <v>138</v>
       </c>
@@ -6935,7 +6936,7 @@
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D140" s="1">
         <v>139</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="141" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D141" s="1">
         <v>140</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D142" s="1">
         <v>141</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D143" s="1">
         <v>142</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D144" s="1">
         <v>143</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D145" s="1">
         <v>144</v>
       </c>
@@ -7017,7 +7018,7 @@
       </c>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D146" s="1">
         <v>145</v>
       </c>
@@ -7029,7 +7030,7 @@
       </c>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D147" s="1">
         <v>146</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="148" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D148" s="1">
         <v>147</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="149" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D149" s="1">
         <v>148</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D150" s="1">
         <v>149</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="151" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D151" s="1">
         <v>150</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="152" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D152" s="1">
         <v>151</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="153" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D153" s="1">
         <v>152</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="154" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D154" s="1">
         <v>153</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="4:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D155" s="1">
         <v>154</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D156" s="1">
         <v>155</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D157" s="1">
         <v>156</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D158" s="1">
         <v>157</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D159" s="1">
         <v>158</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D160" s="1">
         <v>159</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="161" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D161" s="1">
         <v>160</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D162" s="1">
         <v>161</v>
       </c>
@@ -7251,7 +7252,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D163" s="1">
         <v>162</v>
       </c>
@@ -7263,7 +7264,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D164" s="1">
         <v>163</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D165" s="1">
         <v>164</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D166" s="1">
         <v>165</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D167" s="1">
         <v>166</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D168" s="1">
         <v>167</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="169" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D169" s="1">
         <v>168</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="170" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D170" s="1">
         <v>169</v>
       </c>
@@ -7361,7 +7362,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="171" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D171" s="1">
         <v>170</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D172" s="1">
         <v>171</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="173" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D173" s="1">
         <v>172</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D174" s="1">
         <v>173</v>
       </c>
@@ -7415,7 +7416,7 @@
       </c>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D175" s="1">
         <v>174</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="176" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D176" s="1">
         <v>175</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D177" s="1">
         <v>176</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="178" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D178" s="1">
         <v>177</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="4:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D179" s="1">
         <v>178</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="180" spans="4:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:7" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D180" s="1">
         <v>179</v>
       </c>
@@ -7497,7 +7498,7 @@
       </c>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="4:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D181" s="1">
         <v>180</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:7" ht="20" x14ac:dyDescent="0.35">
       <c r="D182" s="1">
         <v>181</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="183" spans="4:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:7" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D183" s="1">
         <v>182</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D184" s="1">
         <v>183</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="4:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D185" s="1">
         <v>184</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D186" s="1">
         <v>185</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="187" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D187" s="1">
         <v>186</v>
       </c>
@@ -7609,17 +7610,17 @@
       <selection activeCell="C13" sqref="A1:E222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.08984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="54.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1345</v>
       </c>
@@ -7630,7 +7631,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>528</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>532</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>536</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>540</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>544</v>
       </c>
@@ -7717,7 +7718,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>1489</v>
       </c>
@@ -7736,7 +7737,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>552</v>
       </c>
@@ -7755,7 +7756,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>556</v>
       </c>
@@ -7774,7 +7775,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>561</v>
       </c>
@@ -7793,7 +7794,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>1490</v>
       </c>
@@ -7812,7 +7813,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>569</v>
       </c>
@@ -7831,7 +7832,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>573</v>
       </c>
@@ -7850,7 +7851,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>577</v>
       </c>
@@ -7869,7 +7870,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>581</v>
       </c>
@@ -7888,7 +7889,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>585</v>
       </c>
@@ -7907,7 +7908,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>589</v>
       </c>
@@ -7926,7 +7927,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>593</v>
       </c>
@@ -7945,7 +7946,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>597</v>
       </c>
@@ -7958,7 +7959,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>1491</v>
       </c>
@@ -7977,7 +7978,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>603</v>
       </c>
@@ -7996,7 +7997,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>607</v>
       </c>
@@ -8015,7 +8016,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>611</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>615</v>
       </c>
@@ -8051,7 +8052,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>620</v>
       </c>
@@ -8070,7 +8071,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>625</v>
       </c>
@@ -8089,7 +8090,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>629</v>
       </c>
@@ -8108,7 +8109,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>633</v>
       </c>
@@ -8127,7 +8128,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>1492</v>
       </c>
@@ -8146,7 +8147,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>641</v>
       </c>
@@ -8165,7 +8166,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>646</v>
       </c>
@@ -8184,7 +8185,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>650</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>1493</v>
       </c>
@@ -8222,7 +8223,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>657</v>
       </c>
@@ -8241,7 +8242,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>1494</v>
       </c>
@@ -8260,7 +8261,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>1495</v>
       </c>
@@ -8279,7 +8280,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>669</v>
       </c>
@@ -8298,7 +8299,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>1496</v>
       </c>
@@ -8317,7 +8318,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>1497</v>
       </c>
@@ -8336,7 +8337,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>681</v>
       </c>
@@ -8355,7 +8356,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>685</v>
       </c>
@@ -8374,7 +8375,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>1498</v>
       </c>
@@ -8393,7 +8394,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>1499</v>
       </c>
@@ -8412,7 +8413,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>698</v>
       </c>
@@ -8425,7 +8426,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>700</v>
       </c>
@@ -8444,7 +8445,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>705</v>
       </c>
@@ -8463,7 +8464,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>709</v>
       </c>
@@ -8482,7 +8483,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>709</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>715</v>
       </c>
@@ -8518,7 +8519,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>715</v>
       </c>
@@ -8537,7 +8538,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>715</v>
       </c>
@@ -8556,7 +8557,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>1500</v>
       </c>
@@ -8575,7 +8576,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>727</v>
       </c>
@@ -8594,7 +8595,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>731</v>
       </c>
@@ -8607,7 +8608,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>1501</v>
       </c>
@@ -8626,7 +8627,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>737</v>
       </c>
@@ -8645,7 +8646,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>737</v>
       </c>
@@ -8664,7 +8665,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>737</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>745</v>
       </c>
@@ -8700,7 +8701,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>749</v>
       </c>
@@ -8719,7 +8720,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>754</v>
       </c>
@@ -8732,7 +8733,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>756</v>
       </c>
@@ -8751,7 +8752,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>761</v>
       </c>
@@ -8764,7 +8765,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>763</v>
       </c>
@@ -8783,7 +8784,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>767</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>1502</v>
       </c>
@@ -8819,7 +8820,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>1503</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>777</v>
       </c>
@@ -8855,7 +8856,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>1504</v>
       </c>
@@ -8874,7 +8875,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>785</v>
       </c>
@@ -8893,7 +8894,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>1505</v>
       </c>
@@ -8912,7 +8913,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>1506</v>
       </c>
@@ -8931,7 +8932,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>796</v>
       </c>
@@ -8950,7 +8951,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>1507</v>
       </c>
@@ -8969,7 +8970,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>804</v>
       </c>
@@ -8988,7 +8989,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>808</v>
       </c>
@@ -9001,7 +9002,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>1508</v>
       </c>
@@ -9020,7 +9021,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>814</v>
       </c>
@@ -9039,7 +9040,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>818</v>
       </c>
@@ -9058,7 +9059,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>1509</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>826</v>
       </c>
@@ -9094,7 +9095,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>830</v>
       </c>
@@ -9113,7 +9114,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>834</v>
       </c>
@@ -9132,7 +9133,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>838</v>
       </c>
@@ -9151,7 +9152,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>842</v>
       </c>
@@ -9164,7 +9165,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>844</v>
       </c>
@@ -9183,7 +9184,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>847</v>
       </c>
@@ -9202,7 +9203,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>851</v>
       </c>
@@ -9221,7 +9222,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>855</v>
       </c>
@@ -9232,7 +9233,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>857</v>
       </c>
@@ -9251,7 +9252,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>861</v>
       </c>
@@ -9270,7 +9271,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>865</v>
       </c>
@@ -9289,7 +9290,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>1510</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>872</v>
       </c>
@@ -9319,7 +9320,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>874</v>
       </c>
@@ -9338,7 +9339,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>878</v>
       </c>
@@ -9357,7 +9358,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>878</v>
       </c>
@@ -9376,7 +9377,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>884</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>888</v>
       </c>
@@ -9412,7 +9413,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>892</v>
       </c>
@@ -9425,7 +9426,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>894</v>
       </c>
@@ -9444,7 +9445,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>898</v>
       </c>
@@ -9457,7 +9458,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>1511</v>
       </c>
@@ -9476,7 +9477,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>903</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>907</v>
       </c>
@@ -9512,7 +9513,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>911</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>915</v>
       </c>
@@ -9548,7 +9549,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>919</v>
       </c>
@@ -9567,7 +9568,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>923</v>
       </c>
@@ -9586,7 +9587,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>927</v>
       </c>
@@ -9599,7 +9600,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>929</v>
       </c>
@@ -9618,7 +9619,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>929</v>
       </c>
@@ -9637,7 +9638,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>935</v>
       </c>
@@ -9656,7 +9657,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>935</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>942</v>
       </c>
@@ -9692,7 +9693,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>942</v>
       </c>
@@ -9711,7 +9712,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
         <v>948</v>
       </c>
@@ -9730,7 +9731,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>952</v>
       </c>
@@ -9741,7 +9742,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
         <v>954</v>
       </c>
@@ -9760,7 +9761,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>958</v>
       </c>
@@ -9777,7 +9778,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
         <v>962</v>
       </c>
@@ -9796,7 +9797,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>967</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>971</v>
       </c>
@@ -9832,7 +9833,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>975</v>
       </c>
@@ -9851,7 +9852,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>979</v>
       </c>
@@ -9870,7 +9871,7 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>983</v>
       </c>
@@ -9883,7 +9884,7 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>985</v>
       </c>
@@ -9902,7 +9903,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>989</v>
       </c>
@@ -9921,7 +9922,7 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>993</v>
       </c>
@@ -9940,7 +9941,7 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>997</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
         <v>997</v>
       </c>
@@ -9976,7 +9977,7 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
         <v>997</v>
       </c>
@@ -9995,7 +9996,7 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>1005</v>
       </c>
@@ -10014,7 +10015,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
         <v>1010</v>
       </c>
@@ -10033,7 +10034,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
         <v>1014</v>
       </c>
@@ -10052,7 +10053,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>1014</v>
       </c>
@@ -10071,7 +10072,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>1512</v>
       </c>
@@ -10090,7 +10091,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>1025</v>
       </c>
@@ -10109,7 +10110,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>1029</v>
       </c>
@@ -10128,7 +10129,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>1033</v>
       </c>
@@ -10147,7 +10148,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>1037</v>
       </c>
@@ -10166,7 +10167,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1041</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>1045</v>
       </c>
@@ -10204,7 +10205,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>1049</v>
       </c>
@@ -10223,7 +10224,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>1513</v>
       </c>
@@ -10242,7 +10243,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>1056</v>
       </c>
@@ -10261,7 +10262,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
         <v>1060</v>
       </c>
@@ -10280,7 +10281,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>1064</v>
       </c>
@@ -10299,7 +10300,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
         <v>1067</v>
       </c>
@@ -10318,7 +10319,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>1071</v>
       </c>
@@ -10337,7 +10338,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
         <v>1074</v>
       </c>
@@ -10356,7 +10357,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
         <v>1078</v>
       </c>
@@ -10375,7 +10376,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
         <v>1078</v>
       </c>
@@ -10394,7 +10395,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
         <v>1078</v>
       </c>
@@ -10413,7 +10414,7 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>1089</v>
       </c>
@@ -10426,7 +10427,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
         <v>1514</v>
       </c>
@@ -10445,7 +10446,7 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>1515</v>
       </c>
@@ -10464,7 +10465,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
         <v>1516</v>
       </c>
@@ -10483,7 +10484,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="12" t="s">
         <v>1516</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="22" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>1106</v>
       </c>
@@ -10519,7 +10520,7 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
         <v>1110</v>
       </c>
@@ -10538,7 +10539,7 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="12" t="s">
         <v>1114</v>
       </c>
@@ -10557,7 +10558,7 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="12" t="s">
         <v>1517</v>
       </c>
@@ -10576,7 +10577,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
         <v>1518</v>
       </c>
@@ -10595,7 +10596,7 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
         <v>1126</v>
       </c>
@@ -10614,7 +10615,7 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
         <v>1130</v>
       </c>
@@ -10633,7 +10634,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
         <v>1134</v>
       </c>
@@ -10646,7 +10647,7 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
         <v>1136</v>
       </c>
@@ -10665,7 +10666,7 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>1140</v>
       </c>
@@ -10684,7 +10685,7 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
         <v>1140</v>
       </c>
@@ -10703,7 +10704,7 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="12" t="s">
         <v>1140</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
         <v>1149</v>
       </c>
@@ -10739,7 +10740,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>1153</v>
       </c>
@@ -10752,7 +10753,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>1155</v>
       </c>
@@ -10771,7 +10772,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>1155</v>
       </c>
@@ -10790,7 +10791,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>1519</v>
       </c>
@@ -10809,7 +10810,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>1166</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
         <v>1170</v>
       </c>
@@ -10845,7 +10846,7 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="12" t="s">
         <v>1174</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="12" t="s">
         <v>1178</v>
       </c>
@@ -10881,7 +10882,7 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="12" t="s">
         <v>1178</v>
       </c>
@@ -10900,7 +10901,7 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
         <v>1184</v>
       </c>
@@ -10919,7 +10920,7 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
         <v>1188</v>
       </c>
@@ -10938,7 +10939,7 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>1520</v>
       </c>
@@ -10957,7 +10958,7 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="12" t="s">
         <v>1197</v>
       </c>
@@ -10976,7 +10977,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
         <v>1201</v>
       </c>
@@ -10995,7 +10996,7 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
         <v>1205</v>
       </c>
@@ -11014,7 +11015,7 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
         <v>1521</v>
       </c>
@@ -11033,7 +11034,7 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
         <v>1213</v>
       </c>
@@ -11052,7 +11053,7 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
         <v>1218</v>
       </c>
@@ -11071,7 +11072,7 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="12" t="s">
         <v>1218</v>
       </c>
@@ -11090,7 +11091,7 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
         <v>1224</v>
       </c>
@@ -11109,7 +11110,7 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="12" t="s">
         <v>1228</v>
       </c>
@@ -11128,7 +11129,7 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
         <v>1232</v>
       </c>
@@ -11147,7 +11148,7 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
         <v>1237</v>
       </c>
@@ -11166,7 +11167,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>1241</v>
       </c>
@@ -11185,7 +11186,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="12" t="s">
         <v>1245</v>
       </c>
@@ -11204,7 +11205,7 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="12" t="s">
         <v>1249</v>
       </c>
@@ -11223,7 +11224,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="12" t="s">
         <v>1252</v>
       </c>
@@ -11242,7 +11243,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
         <v>1257</v>
       </c>
@@ -11261,7 +11262,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
         <v>1261</v>
       </c>
@@ -11280,7 +11281,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
         <v>1261</v>
       </c>
@@ -11299,7 +11300,7 @@
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="12" t="s">
         <v>1261</v>
       </c>
@@ -11318,7 +11319,7 @@
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="12" t="s">
         <v>1272</v>
       </c>
@@ -11337,7 +11338,7 @@
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
         <v>1275</v>
       </c>
@@ -11356,7 +11357,7 @@
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
         <v>1279</v>
       </c>
@@ -11369,7 +11370,7 @@
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="12" t="s">
         <v>1281</v>
       </c>
@@ -11388,7 +11389,7 @@
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="12" t="s">
         <v>1285</v>
       </c>
@@ -11407,7 +11408,7 @@
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="12" t="s">
         <v>1289</v>
       </c>
@@ -11426,7 +11427,7 @@
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
         <v>1293</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="12" t="s">
         <v>1297</v>
       </c>
@@ -11462,7 +11463,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="12" t="s">
         <v>1297</v>
       </c>
@@ -11481,7 +11482,7 @@
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
         <v>1303</v>
       </c>
@@ -11500,7 +11501,7 @@
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="12" t="s">
         <v>1308</v>
       </c>
@@ -11519,7 +11520,7 @@
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="12" t="s">
         <v>1312</v>
       </c>
@@ -11538,7 +11539,7 @@
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="s">
         <v>1312</v>
       </c>
@@ -11557,7 +11558,7 @@
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="12" t="s">
         <v>1318</v>
       </c>
@@ -11576,7 +11577,7 @@
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
         <v>1322</v>
       </c>
@@ -11589,7 +11590,7 @@
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="12" t="s">
         <v>1522</v>
       </c>
@@ -11608,7 +11609,7 @@
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
         <v>1328</v>
       </c>
@@ -11627,7 +11628,7 @@
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
         <v>1333</v>
       </c>
@@ -11646,7 +11647,7 @@
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="12" t="s">
         <v>1337</v>
       </c>
@@ -11663,23 +11664,23 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
     </row>
-    <row r="226" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
     </row>
@@ -11693,13 +11694,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C007884B-7A24-4977-873A-F2EE547A0EFF}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E202"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D76" sqref="A1:F202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>528</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>532</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>536</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>540</v>
       </c>
@@ -11779,7 +11780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>544</v>
       </c>
@@ -11799,7 +11800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>1489</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>552</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>556</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>561</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>1490</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>569</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>573</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>577</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>581</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>585</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>589</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>593</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>1491</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>603</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>607</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>611</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>615</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>620</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="64" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>625</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>629</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>633</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>1492</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>641</v>
       </c>
@@ -12259,7 +12260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>646</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>650</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>1493</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>657</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>1494</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>1495</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>669</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>1496</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="64" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>1497</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>681</v>
       </c>
@@ -12459,7 +12460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>685</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>1498</v>
       </c>
@@ -12499,7 +12500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>1499</v>
       </c>
@@ -12519,7 +12520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>700</v>
       </c>
@@ -12539,7 +12540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>705</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>709</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>709</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="74.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>715</v>
       </c>
@@ -12619,7 +12620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>715</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>715</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>1500</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>727</v>
       </c>
@@ -12699,7 +12700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>1501</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>737</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>737</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>737</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>745</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>749</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>756</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>763</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>767</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>1502</v>
       </c>
@@ -12899,7 +12900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>1503</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>777</v>
       </c>
@@ -12939,7 +12940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>1504</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>785</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>1505</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>1506</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>796</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>1507</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>804</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>1508</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>814</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>818</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="64" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>1509</v>
       </c>
@@ -13159,7 +13160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>826</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>830</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>834</v>
       </c>
@@ -13219,7 +13220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>838</v>
       </c>
@@ -13239,7 +13240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>844</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>847</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>851</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>857</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>861</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>865</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>1510</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>874</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>878</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>878</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>884</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>888</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>894</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>1511</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>903</v>
       </c>
@@ -13539,7 +13540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>907</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>911</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>915</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>919</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>923</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>929</v>
       </c>
@@ -13659,7 +13660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>929</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>935</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>935</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>942</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>942</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>948</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>954</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>958</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>962</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>967</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>971</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>975</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>979</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>985</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>989</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>993</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>997</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>997</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
         <v>997</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>1005</v>
       </c>
@@ -14059,7 +14060,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
         <v>1010</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>1014</v>
       </c>
@@ -14099,7 +14100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
         <v>1014</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>1512</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>1025</v>
       </c>
@@ -14159,7 +14160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>1029</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>1033</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>1037</v>
       </c>
@@ -14219,7 +14220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>1041</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>1045</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>1049</v>
       </c>
@@ -14279,7 +14280,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>1513</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
         <v>1056</v>
       </c>
@@ -14319,7 +14320,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
         <v>1060</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>1064</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
         <v>1067</v>
       </c>
@@ -14379,7 +14380,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
         <v>1071</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="84" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>1074</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>1078</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>1078</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>1078</v>
       </c>
@@ -14479,7 +14480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>1514</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>1515</v>
       </c>
@@ -14519,7 +14520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1516</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>1516</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>1106</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>1110</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>1114</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
         <v>1517</v>
       </c>
@@ -14639,7 +14640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>1518</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
         <v>1126</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>1130</v>
       </c>
@@ -14699,7 +14700,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
         <v>1136</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
         <v>1140</v>
       </c>
@@ -14739,7 +14740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
         <v>1140</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
         <v>1140</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A155" s="12" t="s">
         <v>1149</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
         <v>1155</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>1155</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
         <v>1519</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A159" s="12" t="s">
         <v>1166</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>1170</v>
       </c>
@@ -14899,7 +14900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
         <v>1174</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A162" s="12" t="s">
         <v>1178</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A163" s="12" t="s">
         <v>1178</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
         <v>1184</v>
       </c>
@@ -14979,7 +14980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
         <v>1188</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
         <v>1520</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
         <v>1197</v>
       </c>
@@ -15039,7 +15040,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
         <v>1201</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="64" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>1205</v>
       </c>
@@ -15079,7 +15080,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
         <v>1521</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A171" s="12" t="s">
         <v>1213</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
         <v>1218</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A173" s="12" t="s">
         <v>1218</v>
       </c>
@@ -15159,7 +15160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>1224</v>
       </c>
@@ -15179,7 +15180,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>1228</v>
       </c>
@@ -15199,7 +15200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>1232</v>
       </c>
@@ -15219,7 +15220,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>1237</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
         <v>1241</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A179" s="12" t="s">
         <v>1245</v>
       </c>
@@ -15279,7 +15280,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A180" s="12" t="s">
         <v>1249</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A181" s="12" t="s">
         <v>1252</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
         <v>1257</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
         <v>1261</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="22" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>1261</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A185" s="12" t="s">
         <v>1261</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="63" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
         <v>1272</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
         <v>1275</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
         <v>1281</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
         <v>1285</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
         <v>1289</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A191" s="12" t="s">
         <v>1293</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
         <v>1297</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="53.5" x14ac:dyDescent="0.35">
       <c r="A193" s="12" t="s">
         <v>1297</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
         <v>1303</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
         <v>1308</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>1312</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A197" s="12" t="s">
         <v>1312</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A198" s="12" t="s">
         <v>1318</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A199" s="12" t="s">
         <v>1522</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
         <v>1328</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
         <v>1333</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
         <v>1337</v>
       </c>
@@ -15743,4 +15744,3453 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80315A0-6A28-4A00-AF7D-C2F51E39653E}">
+  <dimension ref="A1:E202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="64" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="84" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="74.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A122" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="84" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A137" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A150" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A152" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A153" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A154" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A155" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A158" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A159" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A162" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A165" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A166" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="64" x14ac:dyDescent="0.35">
+      <c r="A169" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A170" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A173" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A175" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A176" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A177" s="12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A179" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A181" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="12" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A183" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="A184" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A185" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="A186" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A189" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A190" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A192" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="53.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A194" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="43" x14ac:dyDescent="0.35">
+      <c r="A196" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A199" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="12" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>